--- a/lecture3_4.xlsx
+++ b/lecture3_4.xlsx
@@ -1,49 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionchina-my.sharepoint.com/personal/zeng12875_gtiit_edu_cn/Documents/学习/大三下/Project in Design for Manufacturing_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Design\Project-in-Design-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{66FAACDE-FFA9-3545-8669-45EDC9F1ACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6366A7BF-51D6-BB49-A1B1-50B16E47D66C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A26BF-F802-4EBE-9F0E-CF80479B9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{F9E1DA9A-0467-4850-B5B0-257149F8F7BC}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" xr2:uid="{F9E1DA9A-0467-4850-B5B0-257149F8F7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>Weight
 (Importance)</t>
@@ -103,20 +92,31 @@
   <si>
     <t>Cost of the product</t>
   </si>
+  <si>
+    <t>ssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -174,7 +174,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,25 +509,25 @@
   <dimension ref="B5:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.46484375" customWidth="1"/>
+    <col min="13" max="13" width="20.46484375" customWidth="1"/>
+    <col min="14" max="14" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -595,7 +595,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -733,7 +733,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -762,7 +767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D15" s="4">
         <f>ROUND(D14/$H14,3)</f>
         <v>0.7</v>
@@ -780,7 +785,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -801,13 +806,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -851,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -878,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -905,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -932,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -959,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -986,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D29" s="4">
         <f>ROUND(D28/$H28,3)</f>
         <v>0.629</v>
@@ -1060,7 +1065,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="D31" s="6">
         <v>4</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="D32" s="6">
         <v>1</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="D33" s="6">
         <v>1</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="D34" s="6">
         <v>4</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="D35" s="6">
         <v>3</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="D36" s="6">
         <v>4</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="D37" s="6">
         <v>5</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C39"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
@@ -1198,7 +1203,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D49" s="4">
         <f>ROUND(D48/$G48,3)</f>
         <v>0.88</v>
@@ -1434,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C51"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1463,11 +1468,11 @@
       <c r="H51" s="4"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C52"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C53"/>
       <c r="D53" s="5">
         <v>4</v>
@@ -1486,7 +1491,7 @@
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54"/>
       <c r="D54" s="5">
         <v>4</v>
@@ -1505,7 +1510,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C55"/>
       <c r="D55" s="5">
         <v>3</v>
@@ -1524,7 +1529,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56"/>
       <c r="D56" s="5">
         <v>3</v>
@@ -1543,7 +1548,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57"/>
       <c r="D57" s="5">
         <v>5</v>
@@ -1562,7 +1567,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58"/>
       <c r="D58" s="5">
         <v>3</v>
@@ -1581,7 +1586,7 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59"/>
       <c r="D59" s="5">
         <v>1</v>
@@ -1600,11 +1605,12 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C60"/>
       <c r="I60" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D15:G15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
